--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="259">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -713,6 +713,9 @@
     <t>field: fu50</t>
   </si>
   <si>
+    <t>April</t>
+  </si>
+  <si>
     <t>February</t>
   </si>
   <si>
@@ -725,6 +728,21 @@
     <t>December</t>
   </si>
   <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>Murambi Clinic</t>
+  </si>
+  <si>
+    <t>Masikati Clinic</t>
+  </si>
+  <si>
+    <t>Chinhere Clinic</t>
+  </si>
+  <si>
+    <t>Beagest Clinic</t>
+  </si>
+  <si>
     <t>Chingondo</t>
   </si>
   <si>
@@ -767,22 +785,10 @@
     <t>Karoi District Hospital</t>
   </si>
   <si>
-    <t>Tengwe Clinic</t>
-  </si>
-  <si>
-    <t>Murambi Clinic</t>
-  </si>
-  <si>
-    <t>Masikati Clinic</t>
-  </si>
-  <si>
     <t>Chivende clinic</t>
   </si>
   <si>
     <t>Chinhere clinic</t>
-  </si>
-  <si>
-    <t>Beagest Clinic</t>
   </si>
   <si>
     <t>Nyamakate Clinic</t>
@@ -1628,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY43"/>
+  <dimension ref="A1:BY48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1878,19 +1884,19 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1905,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1932,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1977,16 +1983,16 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN2">
         <v>1</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -2073,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BS2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT2">
         <v>1</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -2102,46 +2108,46 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>9</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2159,157 +2165,157 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
         <v>9</v>
       </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>8</v>
-      </c>
-      <c r="AM3">
-        <v>9</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>8</v>
-      </c>
       <c r="BS3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -2332,28 +2338,28 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2365,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2392,160 +2398,160 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>3</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>8</v>
+      </c>
+      <c r="BS4">
+        <v>5</v>
+      </c>
+      <c r="BT4">
+        <v>5</v>
+      </c>
+      <c r="BU4">
         <v>4</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>11</v>
-      </c>
-      <c r="AN4">
-        <v>4</v>
-      </c>
-      <c r="AO4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>11</v>
-      </c>
-      <c r="BT4">
-        <v>4</v>
-      </c>
-      <c r="BU4">
-        <v>1</v>
-      </c>
       <c r="BV4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2562,44 +2568,44 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>28</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -2622,160 +2628,160 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
         <v>3</v>
       </c>
-      <c r="Y5">
-        <v>2</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>6</v>
-      </c>
       <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>28</v>
+      </c>
+      <c r="BS5">
         <v>3</v>
       </c>
-      <c r="AO5">
-        <v>2</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>6</v>
-      </c>
       <c r="BT5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2792,43 +2798,43 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2837,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2852,22 +2858,22 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2900,22 +2906,22 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -2993,25 +2999,25 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BT6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -3022,13 +3028,13 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3037,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3085,13 +3091,13 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -3133,13 +3139,13 @@
         <v>7</v>
       </c>
       <c r="AN7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -3229,13 +3235,13 @@
         <v>7</v>
       </c>
       <c r="BT7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3258,208 +3264,208 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>8</v>
       </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
       <c r="W8">
+        <v>9</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
         <v>8</v>
       </c>
-      <c r="X8">
-        <v>6</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>3</v>
-      </c>
       <c r="AM8">
+        <v>9</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
         <v>8</v>
       </c>
-      <c r="AN8">
-        <v>6</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>3</v>
-      </c>
       <c r="BS8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -3482,19 +3488,19 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>11</v>
-      </c>
-      <c r="G9">
-        <v>22</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -3503,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3539,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>11</v>
-      </c>
-      <c r="W9">
-        <v>22</v>
       </c>
       <c r="X9">
         <v>4</v>
@@ -3551,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -3587,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>11</v>
-      </c>
-      <c r="AM9">
-        <v>22</v>
       </c>
       <c r="AN9">
         <v>4</v>
@@ -3599,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -3683,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
         <v>11</v>
-      </c>
-      <c r="BS9">
-        <v>22</v>
       </c>
       <c r="BT9">
         <v>4</v>
@@ -3695,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="BV9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -3718,22 +3724,22 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3745,43 +3751,43 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
         <v>3</v>
       </c>
-      <c r="P10">
+      <c r="Y10">
         <v>2</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -3817,115 +3823,115 @@
         <v>0</v>
       </c>
       <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>6</v>
+      </c>
+      <c r="AN10">
+        <v>3</v>
+      </c>
+      <c r="AO10">
         <v>2</v>
       </c>
-      <c r="AM10">
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>6</v>
+      </c>
+      <c r="BT10">
         <v>3</v>
       </c>
-      <c r="AN10">
+      <c r="BU10">
         <v>2</v>
       </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>11</v>
-      </c>
-      <c r="BS10">
-        <v>3</v>
-      </c>
-      <c r="BT10">
-        <v>2</v>
-      </c>
-      <c r="BU10">
-        <v>1</v>
-      </c>
       <c r="BV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10">
         <v>0</v>
@@ -3948,40 +3954,40 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4002,22 +4008,22 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -4047,25 +4053,25 @@
         <v>0</v>
       </c>
       <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
         <v>2</v>
       </c>
-      <c r="AM11">
-        <v>1</v>
-      </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -4143,25 +4149,25 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -4172,7 +4178,7 @@
         <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12">
         <v>2025</v>
@@ -4181,67 +4187,67 @@
         <v>244</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>7</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>7</v>
       </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
-      <c r="R12">
-        <v>6</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
       <c r="X12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -4277,25 +4283,25 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN12">
         <v>7</v>
       </c>
       <c r="AO12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -4373,25 +4379,25 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BS12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BT12">
         <v>7</v>
       </c>
       <c r="BU12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BV12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BW12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BX12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY12">
         <v>0</v>
@@ -4402,214 +4408,214 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>16</v>
-      </c>
-      <c r="O13">
+      <c r="AM13">
+        <v>8</v>
+      </c>
+      <c r="AN13">
+        <v>6</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
         <v>3</v>
       </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>2</v>
-      </c>
-      <c r="AM13">
-        <v>3</v>
-      </c>
-      <c r="AN13">
-        <v>3</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>16</v>
-      </c>
       <c r="BS13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BT13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BU13">
         <v>0</v>
@@ -4632,28 +4638,28 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D14">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4665,16 +4671,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -4689,19 +4695,19 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -4737,20 +4743,20 @@
         <v>0</v>
       </c>
       <c r="AL14">
+        <v>11</v>
+      </c>
+      <c r="AM14">
+        <v>22</v>
+      </c>
+      <c r="AN14">
+        <v>4</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
         <v>3</v>
       </c>
-      <c r="AM14">
-        <v>2</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
       <c r="AQ14">
         <v>0</v>
       </c>
@@ -4833,19 +4839,19 @@
         <v>0</v>
       </c>
       <c r="BR14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BS14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="BT14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BU14">
         <v>1</v>
       </c>
       <c r="BV14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -4862,22 +4868,22 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4895,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4967,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -5063,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BS15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BT15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BU15">
         <v>1</v>
@@ -5092,28 +5098,28 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -5125,19 +5131,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -5197,19 +5203,19 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -5293,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BS16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW16">
         <v>0</v>
@@ -5322,58 +5328,58 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F17">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
         <v>7</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
       <c r="J17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
         <v>7</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4</v>
       </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
       <c r="R17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -5427,25 +5433,25 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="AM17">
+        <v>6</v>
+      </c>
+      <c r="AN17">
         <v>7</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>4</v>
       </c>
-      <c r="AO17">
-        <v>2</v>
-      </c>
       <c r="AP17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -5523,25 +5529,25 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="BS17">
+        <v>6</v>
+      </c>
+      <c r="BT17">
         <v>7</v>
       </c>
-      <c r="BT17">
+      <c r="BU17">
         <v>4</v>
       </c>
-      <c r="BU17">
-        <v>2</v>
-      </c>
       <c r="BV17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BW17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BX17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY17">
         <v>0</v>
@@ -5552,121 +5558,121 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>25</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>6</v>
-      </c>
       <c r="AM18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -5753,16 +5759,16 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="BS18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV18">
         <v>0</v>
@@ -5782,25 +5788,25 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5815,16 +5821,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5887,16 +5893,16 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -5983,16 +5989,16 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV19">
         <v>0</v>
@@ -6012,25 +6018,25 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -6045,16 +6051,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O20">
         <v>6</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6120,13 +6126,13 @@
         <v>4</v>
       </c>
       <c r="AM20">
+        <v>6</v>
+      </c>
+      <c r="AN20">
         <v>5</v>
       </c>
-      <c r="AN20">
-        <v>2</v>
-      </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -6213,16 +6219,16 @@
         <v>0</v>
       </c>
       <c r="BR20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BS20">
         <v>6</v>
       </c>
       <c r="BT20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BU20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV20">
         <v>0</v>
@@ -6242,28 +6248,28 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -6275,19 +6281,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -6347,19 +6353,19 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -6443,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="BR21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BU21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21">
         <v>0</v>
@@ -6472,31 +6478,31 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -6505,22 +6511,22 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -6577,22 +6583,22 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6673,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="BS22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BT22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BU22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX22">
         <v>0</v>
@@ -6702,25 +6708,25 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -6735,16 +6741,16 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -6807,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -6903,16 +6909,16 @@
         <v>0</v>
       </c>
       <c r="BR23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV23">
         <v>0</v>
@@ -6932,16 +6938,16 @@
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -6965,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -7133,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BS24">
         <v>0</v>
@@ -7162,23 +7168,23 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
       <c r="I25">
         <v>0</v>
       </c>
@@ -7195,14 +7201,14 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
         <v>2</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
       <c r="Q25">
         <v>0</v>
       </c>
@@ -7267,14 +7273,14 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AM25">
+        <v>5</v>
+      </c>
+      <c r="AN25">
         <v>2</v>
       </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
       <c r="AO25">
         <v>0</v>
       </c>
@@ -7363,13 +7369,13 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BS25">
+        <v>6</v>
+      </c>
+      <c r="BT25">
         <v>2</v>
-      </c>
-      <c r="BT25">
-        <v>1</v>
       </c>
       <c r="BU25">
         <v>0</v>
@@ -7392,16 +7398,16 @@
         <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -7425,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -7593,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BS26">
         <v>0</v>
@@ -7622,22 +7628,22 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -7646,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -7655,13 +7661,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7670,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -7727,13 +7733,13 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -7742,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7823,13 +7829,13 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU27">
         <v>0</v>
@@ -7838,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="BW27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX27">
         <v>0</v>
@@ -7852,25 +7858,25 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -7885,16 +7891,16 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="O28">
         <v>3</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -7957,16 +7963,16 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>3</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -8053,16 +8059,16 @@
         <v>0</v>
       </c>
       <c r="BR28">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="BS28">
         <v>3</v>
       </c>
       <c r="BT28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV28">
         <v>0</v>
@@ -8088,22 +8094,22 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -8115,19 +8121,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -8187,19 +8193,19 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -8283,19 +8289,19 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW29">
         <v>0</v>
@@ -8312,22 +8318,22 @@
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -8345,13 +8351,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -8417,13 +8423,13 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -8513,13 +8519,13 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU30">
         <v>0</v>
@@ -8542,22 +8548,22 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -8575,13 +8581,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -8647,13 +8653,13 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -8743,13 +8749,13 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BS31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU31">
         <v>0</v>
@@ -8772,22 +8778,22 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D32">
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -8805,13 +8811,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -8880,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -8973,13 +8979,13 @@
         <v>0</v>
       </c>
       <c r="BR32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU32">
         <v>0</v>
@@ -9002,22 +9008,22 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D33">
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F33">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -9035,13 +9041,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="O33">
         <v>3</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -9107,13 +9113,13 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM33">
         <v>3</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO33">
         <v>1</v>
@@ -9203,13 +9209,13 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="BS33">
         <v>3</v>
       </c>
       <c r="BT33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU33">
         <v>1</v>
@@ -9232,19 +9238,19 @@
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -9253,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -9265,10 +9271,10 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P34">
         <v>3</v>
@@ -9277,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -9337,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN34">
         <v>3</v>
@@ -9349,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -9433,10 +9439,10 @@
         <v>0</v>
       </c>
       <c r="BR34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BS34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT34">
         <v>3</v>
@@ -9445,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="BV34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW34">
         <v>0</v>
@@ -9468,16 +9474,16 @@
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -9495,13 +9501,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -9567,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -9663,13 +9669,13 @@
         <v>0</v>
       </c>
       <c r="BR35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BS35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU35">
         <v>0</v>
@@ -9698,19 +9704,19 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -9725,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -9797,16 +9803,16 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -9893,16 +9899,16 @@
         <v>0</v>
       </c>
       <c r="BR36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BS36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BT36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BU36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV36">
         <v>0</v>
@@ -9928,16 +9934,16 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -9955,13 +9961,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -10030,10 +10036,10 @@
         <v>0</v>
       </c>
       <c r="AM37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -10123,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="BR37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU37">
         <v>0</v>
@@ -10158,22 +10164,22 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -10185,19 +10191,19 @@
         <v>0</v>
       </c>
       <c r="N38">
+        <v>38</v>
+      </c>
+      <c r="O38">
         <v>3</v>
       </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
       <c r="P38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -10257,19 +10263,19 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AM38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -10353,19 +10359,19 @@
         <v>0</v>
       </c>
       <c r="BR38">
+        <v>38</v>
+      </c>
+      <c r="BS38">
         <v>3</v>
       </c>
-      <c r="BS38">
-        <v>4</v>
-      </c>
       <c r="BT38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW38">
         <v>0</v>
@@ -10382,7 +10388,7 @@
         <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D39">
         <v>2025</v>
@@ -10391,16 +10397,16 @@
         <v>249</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -10415,16 +10421,16 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
         <v>3</v>
       </c>
-      <c r="P39">
-        <v>4</v>
-      </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -10487,16 +10493,16 @@
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM39">
+        <v>5</v>
+      </c>
+      <c r="AN39">
         <v>3</v>
       </c>
-      <c r="AN39">
-        <v>4</v>
-      </c>
       <c r="AO39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -10583,16 +10589,16 @@
         <v>0</v>
       </c>
       <c r="BR39">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="BS39">
+        <v>5</v>
+      </c>
+      <c r="BT39">
         <v>3</v>
       </c>
-      <c r="BT39">
-        <v>4</v>
-      </c>
       <c r="BU39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV39">
         <v>0</v>
@@ -10612,25 +10618,25 @@
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -10645,16 +10651,16 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -10720,13 +10726,13 @@
         <v>3</v>
       </c>
       <c r="AM40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -10813,16 +10819,16 @@
         <v>0</v>
       </c>
       <c r="BR40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BS40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV40">
         <v>0</v>
@@ -10842,223 +10848,223 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>8</v>
+      </c>
+      <c r="O41">
         <v>6</v>
       </c>
-      <c r="K41">
+      <c r="P41">
         <v>4</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>15</v>
-      </c>
-      <c r="O41">
-        <v>9</v>
-      </c>
-      <c r="P41">
-        <v>5</v>
-      </c>
       <c r="Q41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>6</v>
       </c>
-      <c r="S41">
+      <c r="AN41">
         <v>4</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
         <v>8</v>
       </c>
-      <c r="AM41">
-        <v>9</v>
-      </c>
-      <c r="AN41">
-        <v>5</v>
-      </c>
-      <c r="AO41">
-        <v>5</v>
-      </c>
-      <c r="AP41">
+      <c r="BS41">
         <v>6</v>
       </c>
-      <c r="AQ41">
+      <c r="BT41">
         <v>4</v>
       </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41">
-        <v>0</v>
-      </c>
-      <c r="BF41">
-        <v>0</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>0</v>
-      </c>
-      <c r="BK41">
-        <v>0</v>
-      </c>
-      <c r="BL41">
-        <v>0</v>
-      </c>
-      <c r="BM41">
-        <v>0</v>
-      </c>
-      <c r="BN41">
-        <v>0</v>
-      </c>
-      <c r="BO41">
-        <v>0</v>
-      </c>
-      <c r="BP41">
-        <v>0</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41">
-        <v>15</v>
-      </c>
-      <c r="BS41">
-        <v>9</v>
-      </c>
-      <c r="BT41">
-        <v>5</v>
-      </c>
       <c r="BU41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BW41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX41">
         <v>0</v>
@@ -11072,22 +11078,22 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -11105,13 +11111,13 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -11180,10 +11186,10 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -11273,13 +11279,13 @@
         <v>0</v>
       </c>
       <c r="BR42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BS42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU42">
         <v>0</v>
@@ -11302,228 +11308,1378 @@
         <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
       <c r="E43" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>4</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>0</v>
+      </c>
+      <c r="BR43">
+        <v>3</v>
+      </c>
+      <c r="BS43">
+        <v>4</v>
+      </c>
+      <c r="BT43">
+        <v>0</v>
+      </c>
+      <c r="BU43">
+        <v>0</v>
+      </c>
+      <c r="BV43">
+        <v>1</v>
+      </c>
+      <c r="BW43">
+        <v>0</v>
+      </c>
+      <c r="BX43">
+        <v>0</v>
+      </c>
+      <c r="BY43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:77">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
+      </c>
+      <c r="E44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>24</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>2</v>
+      </c>
+      <c r="AM44">
+        <v>3</v>
+      </c>
+      <c r="AN44">
+        <v>4</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <v>0</v>
+      </c>
+      <c r="BR44">
+        <v>24</v>
+      </c>
+      <c r="BS44">
+        <v>3</v>
+      </c>
+      <c r="BT44">
+        <v>4</v>
+      </c>
+      <c r="BU44">
+        <v>2</v>
+      </c>
+      <c r="BV44">
+        <v>0</v>
+      </c>
+      <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BX44">
+        <v>0</v>
+      </c>
+      <c r="BY44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:77">
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
+      </c>
+      <c r="E45" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>3</v>
+      </c>
+      <c r="AM45">
+        <v>3</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <v>0</v>
+      </c>
+      <c r="BR45">
+        <v>4</v>
+      </c>
+      <c r="BS45">
+        <v>3</v>
+      </c>
+      <c r="BT45">
+        <v>2</v>
+      </c>
+      <c r="BU45">
+        <v>1</v>
+      </c>
+      <c r="BV45">
+        <v>0</v>
+      </c>
+      <c r="BW45">
+        <v>0</v>
+      </c>
+      <c r="BX45">
+        <v>0</v>
+      </c>
+      <c r="BY45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:77">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
+      </c>
+      <c r="E46" t="s">
         <v>250</v>
       </c>
-      <c r="F43">
+      <c r="F46">
         <v>15</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>15</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
-      </c>
-      <c r="BF43">
-        <v>0</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>0</v>
-      </c>
-      <c r="BK43">
-        <v>0</v>
-      </c>
-      <c r="BL43">
-        <v>0</v>
-      </c>
-      <c r="BM43">
-        <v>0</v>
-      </c>
-      <c r="BN43">
-        <v>0</v>
-      </c>
-      <c r="BO43">
-        <v>0</v>
-      </c>
-      <c r="BP43">
-        <v>0</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43">
+      <c r="O46">
+        <v>9</v>
+      </c>
+      <c r="P46">
+        <v>5</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>8</v>
+      </c>
+      <c r="AM46">
+        <v>9</v>
+      </c>
+      <c r="AN46">
+        <v>5</v>
+      </c>
+      <c r="AO46">
+        <v>5</v>
+      </c>
+      <c r="AP46">
+        <v>6</v>
+      </c>
+      <c r="AQ46">
+        <v>4</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>15</v>
+      </c>
+      <c r="BS46">
+        <v>9</v>
+      </c>
+      <c r="BT46">
+        <v>5</v>
+      </c>
+      <c r="BU46">
+        <v>5</v>
+      </c>
+      <c r="BV46">
+        <v>6</v>
+      </c>
+      <c r="BW46">
+        <v>4</v>
+      </c>
+      <c r="BX46">
+        <v>0</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:77">
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
+      </c>
+      <c r="E47" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:77">
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
+      </c>
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>15</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
         <v>11</v>
       </c>
-      <c r="BS43">
-        <v>0</v>
-      </c>
-      <c r="BT43">
-        <v>0</v>
-      </c>
-      <c r="BU43">
-        <v>0</v>
-      </c>
-      <c r="BV43">
-        <v>0</v>
-      </c>
-      <c r="BW43">
-        <v>0</v>
-      </c>
-      <c r="BX43">
-        <v>0</v>
-      </c>
-      <c r="BY43">
+      <c r="BS48">
+        <v>0</v>
+      </c>
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>0</v>
+      </c>
+      <c r="BV48">
+        <v>0</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="260">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -713,12 +713,12 @@
     <t>field: fu50</t>
   </si>
   <si>
+    <t>February</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
-    <t>February</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -728,6 +728,33 @@
     <t>December</t>
   </si>
   <si>
+    <t>Border Church Clinic</t>
+  </si>
+  <si>
+    <t>Helywin Clinic</t>
+  </si>
+  <si>
+    <t>Karuru Clinic</t>
+  </si>
+  <si>
+    <t>Nyamakate Clinic</t>
+  </si>
+  <si>
+    <t>Moy Clinic</t>
+  </si>
+  <si>
+    <t>Zebra downs Clinic</t>
+  </si>
+  <si>
+    <t>Kasimure Clinic</t>
+  </si>
+  <si>
+    <t>Nyangoma Clinic</t>
+  </si>
+  <si>
+    <t>Karoi District Hospital</t>
+  </si>
+  <si>
     <t>Tengwe Clinic</t>
   </si>
   <si>
@@ -761,37 +788,13 @@
     <t>Donain</t>
   </si>
   <si>
-    <t>Helywin Clinic</t>
-  </si>
-  <si>
-    <t>Karuru Clinic</t>
-  </si>
-  <si>
     <t>Chirundu Clinic</t>
   </si>
   <si>
-    <t>Moy Clinic</t>
-  </si>
-  <si>
-    <t>Zebra downs Clinic</t>
-  </si>
-  <si>
-    <t>Kasimure Clinic</t>
-  </si>
-  <si>
-    <t>Nyangoma Clinic</t>
-  </si>
-  <si>
-    <t>Karoi District Hospital</t>
-  </si>
-  <si>
     <t>Chivende clinic</t>
   </si>
   <si>
     <t>Chinhere clinic</t>
-  </si>
-  <si>
-    <t>Nyamakate Clinic</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY48"/>
+  <dimension ref="A1:BY57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1887,208 +1890,208 @@
         <v>237</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>8</v>
-      </c>
-      <c r="O2">
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
         <v>10</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>3</v>
-      </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>8</v>
       </c>
       <c r="BS2">
         <v>6</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -2108,7 +2111,7 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -2117,16 +2120,16 @@
         <v>238</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2141,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O3">
         <v>5</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2216,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="AM3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN3">
         <v>1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2309,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BS3">
         <v>5</v>
       </c>
       <c r="BT3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -2338,7 +2341,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D4">
         <v>2025</v>
@@ -2347,211 +2350,211 @@
         <v>239</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
         <v>4</v>
       </c>
-      <c r="R4">
+      <c r="AN4">
+        <v>3</v>
+      </c>
+      <c r="AO4">
         <v>2</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>12</v>
+      </c>
+      <c r="BS4">
+        <v>4</v>
+      </c>
+      <c r="BT4">
+        <v>3</v>
+      </c>
+      <c r="BU4">
         <v>2</v>
       </c>
-      <c r="AN4">
-        <v>2</v>
-      </c>
-      <c r="AO4">
-        <v>3</v>
-      </c>
-      <c r="AP4">
-        <v>2</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>8</v>
-      </c>
-      <c r="BS4">
-        <v>5</v>
-      </c>
-      <c r="BT4">
-        <v>5</v>
-      </c>
-      <c r="BU4">
-        <v>4</v>
-      </c>
       <c r="BV4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2568,7 +2571,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D5">
         <v>2025</v>
@@ -2577,19 +2580,19 @@
         <v>240</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2601,19 +2604,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2673,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>3</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2769,19 +2772,19 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="BS5">
         <v>3</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2798,7 +2801,7 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D6">
         <v>2025</v>
@@ -2810,16 +2813,16 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2834,16 +2837,16 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2903,19 +2906,19 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2999,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
@@ -3011,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -3037,16 +3040,16 @@
         <v>242</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3061,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3088,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -3136,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -3232,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7">
         <v>0</v>
@@ -3258,7 +3261,7 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D8">
         <v>2025</v>
@@ -3267,22 +3270,22 @@
         <v>243</v>
       </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3291,22 +3294,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3315,166 +3318,166 @@
         <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8">
         <v>8</v>
       </c>
-      <c r="W8">
-        <v>9</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
+      <c r="AN8">
+        <v>3</v>
+      </c>
+      <c r="AO8">
+        <v>4</v>
+      </c>
+      <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>7</v>
+      </c>
+      <c r="BS8">
         <v>8</v>
       </c>
-      <c r="AM8">
-        <v>9</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>8</v>
-      </c>
-      <c r="BS8">
-        <v>9</v>
-      </c>
       <c r="BT8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8">
         <v>0</v>
@@ -3488,28 +3491,28 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3521,19 +3524,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -3548,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -3593,19 +3596,19 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AN9">
         <v>4</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -3689,19 +3692,19 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BS9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BT9">
         <v>4</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW9">
         <v>0</v>
@@ -3718,25 +3721,25 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3751,19 +3754,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -3778,61 +3781,61 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>4</v>
+      </c>
+      <c r="AM10">
         <v>3</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>6</v>
       </c>
       <c r="AN10">
         <v>3</v>
       </c>
       <c r="AO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP10">
         <v>1</v>
@@ -3919,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BS10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BT10">
         <v>3</v>
       </c>
       <c r="BU10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV10">
         <v>1</v>
@@ -3948,130 +3951,130 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>3</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>3</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
       </c>
       <c r="AM11">
         <v>2</v>
       </c>
       <c r="AN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -4149,25 +4152,25 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BS11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BT11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -4184,22 +4187,22 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4211,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4238,16 +4241,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -4283,19 +4286,19 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AN12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -4379,19 +4382,19 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BT12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BU12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW12">
         <v>0</v>
@@ -4408,220 +4411,220 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
+        <v>2</v>
+      </c>
+      <c r="AO13">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
         <v>8</v>
       </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
-      </c>
-      <c r="W13">
-        <v>8</v>
-      </c>
-      <c r="X13">
-        <v>6</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>3</v>
-      </c>
-      <c r="AM13">
-        <v>8</v>
-      </c>
-      <c r="AN13">
-        <v>6</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>3</v>
-      </c>
       <c r="BS13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BT13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BU13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW13">
         <v>0</v>
@@ -4638,44 +4641,44 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>28</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -4695,163 +4698,163 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
         <v>3</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>11</v>
-      </c>
-      <c r="AM14">
-        <v>22</v>
-      </c>
       <c r="AN14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>28</v>
+      </c>
+      <c r="BS14">
         <v>3</v>
       </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>11</v>
-      </c>
-      <c r="BS14">
-        <v>22</v>
-      </c>
       <c r="BT14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -4868,28 +4871,28 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4901,19 +4904,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -4973,19 +4976,19 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -5069,19 +5072,19 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BS15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BT15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW15">
         <v>0</v>
@@ -5098,25 +5101,25 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -5131,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -5158,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -5203,16 +5206,16 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN16">
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
         <v>0</v>
@@ -5299,16 +5302,16 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BS16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BT16">
         <v>1</v>
       </c>
       <c r="BU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV16">
         <v>0</v>
@@ -5328,70 +5331,70 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
         <v>9</v>
       </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
       <c r="H17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17">
         <v>9</v>
       </c>
-      <c r="O17">
-        <v>6</v>
-      </c>
-      <c r="P17">
-        <v>7</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -5433,25 +5436,25 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AM17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AN17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -5529,25 +5532,25 @@
         <v>0</v>
       </c>
       <c r="BR17">
+        <v>8</v>
+      </c>
+      <c r="BS17">
         <v>9</v>
       </c>
-      <c r="BS17">
-        <v>6</v>
-      </c>
       <c r="BT17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BU17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BW17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BX17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY17">
         <v>0</v>
@@ -5558,7 +5561,7 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -5567,16 +5570,16 @@
         <v>251</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5591,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -5618,13 +5621,13 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -5663,16 +5666,16 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -5759,16 +5762,16 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BS18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BT18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV18">
         <v>0</v>
@@ -5788,28 +5791,28 @@
         <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -5821,43 +5824,43 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
         <v>2</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -5893,19 +5896,19 @@
         <v>0</v>
       </c>
       <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>6</v>
+      </c>
+      <c r="AN19">
         <v>3</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <v>2</v>
       </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -5989,19 +5992,19 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS19">
+        <v>6</v>
+      </c>
+      <c r="BT19">
+        <v>3</v>
+      </c>
+      <c r="BU19">
         <v>2</v>
       </c>
-      <c r="BT19">
-        <v>1</v>
-      </c>
-      <c r="BU19">
-        <v>1</v>
-      </c>
       <c r="BV19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19">
         <v>0</v>
@@ -6018,49 +6021,49 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6078,22 +6081,22 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -6123,25 +6126,25 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20">
         <v>0</v>
@@ -6219,25 +6222,25 @@
         <v>0</v>
       </c>
       <c r="BR20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BS20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BT20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BU20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY20">
         <v>0</v>
@@ -6248,25 +6251,25 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -6281,19 +6284,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -6308,16 +6311,16 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -6353,16 +6356,16 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP21">
         <v>1</v>
@@ -6449,16 +6452,16 @@
         <v>0</v>
       </c>
       <c r="BR21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BS21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BT21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BU21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BV21">
         <v>1</v>
@@ -6487,19 +6490,19 @@
         <v>255</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -6511,19 +6514,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -6535,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -6583,19 +6586,19 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="AM22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -6679,19 +6682,19 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="BS22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BU22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW22">
         <v>0</v>
@@ -6708,28 +6711,28 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D23">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -6741,16 +6744,16 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -6765,19 +6768,19 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -6813,19 +6816,19 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO23">
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -6909,19 +6912,19 @@
         <v>0</v>
       </c>
       <c r="BR23">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="BS23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="BT23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BU23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW23">
         <v>0</v>
@@ -6947,16 +6950,16 @@
         <v>238</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -6971,16 +6974,16 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -7043,16 +7046,16 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -7139,16 +7142,16 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV24">
         <v>0</v>
@@ -7177,109 +7180,109 @@
         <v>239</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>18</v>
-      </c>
-      <c r="O25">
-        <v>6</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>4</v>
-      </c>
       <c r="AM25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -7369,13 +7372,13 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BS25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BT25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU25">
         <v>0</v>
@@ -7404,52 +7407,52 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -7503,25 +7506,25 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26">
         <v>0</v>
@@ -7599,25 +7602,25 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BX26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY26">
         <v>0</v>
@@ -7634,16 +7637,16 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -7652,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -7661,13 +7664,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="O27">
         <v>3</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -7676,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -7733,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -7748,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7829,13 +7832,13 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="BS27">
         <v>3</v>
       </c>
       <c r="BT27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU27">
         <v>0</v>
@@ -7844,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="BW27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX27">
         <v>0</v>
@@ -7864,115 +7867,115 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
         <v>3</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>24</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
       <c r="AM28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -8059,16 +8062,16 @@
         <v>0</v>
       </c>
       <c r="BR28">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="BS28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV28">
         <v>0</v>
@@ -8088,25 +8091,25 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8121,16 +8124,16 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -8193,16 +8196,16 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -8289,16 +8292,16 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV29">
         <v>0</v>
@@ -8318,28 +8321,28 @@
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -8351,19 +8354,19 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -8423,19 +8426,19 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -8519,19 +8522,19 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BS30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BU30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW30">
         <v>0</v>
@@ -8548,28 +8551,28 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -8581,19 +8584,19 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -8653,19 +8656,19 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -8749,19 +8752,19 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BT31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW31">
         <v>0</v>
@@ -8778,25 +8781,25 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D32">
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -8811,16 +8814,16 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -8883,16 +8886,16 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
         <v>0</v>
@@ -8979,16 +8982,16 @@
         <v>0</v>
       </c>
       <c r="BR32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV32">
         <v>0</v>
@@ -9008,25 +9011,25 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D33">
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -9041,16 +9044,16 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -9113,16 +9116,16 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>0</v>
@@ -9209,16 +9212,16 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BS33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV33">
         <v>0</v>
@@ -9238,28 +9241,28 @@
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -9271,19 +9274,19 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O34">
         <v>6</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -9343,19 +9346,19 @@
         <v>0</v>
       </c>
       <c r="AL34">
+        <v>4</v>
+      </c>
+      <c r="AM34">
+        <v>5</v>
+      </c>
+      <c r="AN34">
         <v>2</v>
       </c>
-      <c r="AM34">
-        <v>6</v>
-      </c>
-      <c r="AN34">
-        <v>3</v>
-      </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -9439,19 +9442,19 @@
         <v>0</v>
       </c>
       <c r="BR34">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="BS34">
         <v>6</v>
       </c>
       <c r="BT34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW34">
         <v>0</v>
@@ -9468,16 +9471,16 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -9501,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -9573,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -9669,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="BR35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BS35">
         <v>0</v>
@@ -9698,22 +9701,22 @@
         <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -9722,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -9731,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9746,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -9803,13 +9806,13 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AM36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -9818,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9899,13 +9902,13 @@
         <v>0</v>
       </c>
       <c r="BR36">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="BS36">
         <v>3</v>
       </c>
       <c r="BT36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU36">
         <v>0</v>
@@ -9914,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="BW36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX36">
         <v>0</v>
@@ -9928,22 +9931,22 @@
         <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -9961,13 +9964,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O37">
         <v>3</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -10039,7 +10042,7 @@
         <v>3</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -10129,13 +10132,13 @@
         <v>0</v>
       </c>
       <c r="BR37">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BS37">
         <v>3</v>
       </c>
       <c r="BT37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU37">
         <v>0</v>
@@ -10158,25 +10161,25 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -10191,16 +10194,16 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -10263,16 +10266,16 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -10359,16 +10362,16 @@
         <v>0</v>
       </c>
       <c r="BR38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BS38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV38">
         <v>0</v>
@@ -10388,25 +10391,25 @@
         <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -10421,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -10493,16 +10496,16 @@
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -10589,16 +10592,16 @@
         <v>0</v>
       </c>
       <c r="BR39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BT39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV39">
         <v>0</v>
@@ -10618,22 +10621,22 @@
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -10651,13 +10654,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -10723,13 +10726,13 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -10819,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="BR40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU40">
         <v>0</v>
@@ -10848,25 +10851,25 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -10881,16 +10884,16 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -10953,16 +10956,16 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <v>0</v>
@@ -11049,16 +11052,16 @@
         <v>0</v>
       </c>
       <c r="BR41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BS41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV41">
         <v>0</v>
@@ -11078,25 +11081,25 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -11111,16 +11114,16 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -11183,16 +11186,16 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42">
         <v>0</v>
@@ -11279,16 +11282,16 @@
         <v>0</v>
       </c>
       <c r="BR42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BS42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV42">
         <v>0</v>
@@ -11314,19 +11317,19 @@
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
         <v>3</v>
       </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -11341,16 +11344,16 @@
         <v>0</v>
       </c>
       <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -11413,16 +11416,16 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43">
         <v>1</v>
@@ -11509,16 +11512,16 @@
         <v>0</v>
       </c>
       <c r="BR43">
+        <v>5</v>
+      </c>
+      <c r="BS43">
+        <v>6</v>
+      </c>
+      <c r="BT43">
         <v>3</v>
       </c>
-      <c r="BS43">
-        <v>4</v>
-      </c>
-      <c r="BT43">
-        <v>0</v>
-      </c>
       <c r="BU43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV43">
         <v>1</v>
@@ -11538,25 +11541,25 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -11571,16 +11574,16 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -11643,16 +11646,16 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP44">
         <v>0</v>
@@ -11739,16 +11742,16 @@
         <v>0</v>
       </c>
       <c r="BR44">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="BS44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV44">
         <v>0</v>
@@ -11768,25 +11771,25 @@
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -11801,88 +11804,88 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
         <v>2</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>3</v>
       </c>
       <c r="AM45">
         <v>3</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -11969,16 +11972,16 @@
         <v>0</v>
       </c>
       <c r="BR45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS45">
         <v>3</v>
       </c>
       <c r="BT45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV45">
         <v>0</v>
@@ -11998,223 +12001,223 @@
         <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>5</v>
       </c>
-      <c r="I46">
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>3</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
         <v>5</v>
       </c>
-      <c r="J46">
-        <v>6</v>
-      </c>
-      <c r="K46">
-        <v>4</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>15</v>
-      </c>
-      <c r="O46">
-        <v>9</v>
-      </c>
-      <c r="P46">
-        <v>5</v>
-      </c>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-      <c r="R46">
-        <v>6</v>
-      </c>
-      <c r="S46">
-        <v>4</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>8</v>
-      </c>
-      <c r="AM46">
-        <v>9</v>
-      </c>
-      <c r="AN46">
-        <v>5</v>
-      </c>
-      <c r="AO46">
-        <v>5</v>
-      </c>
-      <c r="AP46">
-        <v>6</v>
-      </c>
-      <c r="AQ46">
-        <v>4</v>
-      </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>0</v>
-      </c>
-      <c r="BK46">
-        <v>0</v>
-      </c>
-      <c r="BL46">
-        <v>0</v>
-      </c>
-      <c r="BM46">
-        <v>0</v>
-      </c>
-      <c r="BN46">
-        <v>0</v>
-      </c>
-      <c r="BO46">
-        <v>0</v>
-      </c>
-      <c r="BP46">
-        <v>0</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46">
-        <v>15</v>
-      </c>
       <c r="BS46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BT46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BW46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX46">
         <v>0</v>
@@ -12228,25 +12231,25 @@
         <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -12261,16 +12264,16 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -12333,16 +12336,16 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
         <v>0</v>
@@ -12429,16 +12432,16 @@
         <v>0</v>
       </c>
       <c r="BR47">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BS47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV47">
         <v>0</v>
@@ -12458,228 +12461,2298 @@
         <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>5</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
+        <v>7</v>
+      </c>
+      <c r="BS48">
+        <v>5</v>
+      </c>
+      <c r="BT48">
+        <v>3</v>
+      </c>
+      <c r="BU48">
+        <v>1</v>
+      </c>
+      <c r="BV48">
+        <v>0</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:77">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
+      </c>
+      <c r="E49" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>8</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>3</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>8</v>
+      </c>
+      <c r="BS49">
+        <v>1</v>
+      </c>
+      <c r="BT49">
+        <v>1</v>
+      </c>
+      <c r="BU49">
+        <v>0</v>
+      </c>
+      <c r="BV49">
+        <v>0</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BY49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:77">
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50">
+        <v>2025</v>
+      </c>
+      <c r="E50" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="O50">
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
+        <v>6</v>
+      </c>
+      <c r="AN50">
+        <v>4</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
+      <c r="BR50">
+        <v>8</v>
+      </c>
+      <c r="BS50">
+        <v>6</v>
+      </c>
+      <c r="BT50">
+        <v>4</v>
+      </c>
+      <c r="BU50">
+        <v>1</v>
+      </c>
+      <c r="BV50">
+        <v>0</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BY50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:77">
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51">
+        <v>2025</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>6</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>2</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+      <c r="BQ51">
+        <v>0</v>
+      </c>
+      <c r="BR51">
+        <v>6</v>
+      </c>
+      <c r="BS51">
+        <v>2</v>
+      </c>
+      <c r="BT51">
+        <v>2</v>
+      </c>
+      <c r="BU51">
+        <v>0</v>
+      </c>
+      <c r="BV51">
+        <v>0</v>
+      </c>
+      <c r="BW51">
+        <v>0</v>
+      </c>
+      <c r="BX51">
+        <v>0</v>
+      </c>
+      <c r="BY51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:77">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52">
+        <v>2025</v>
+      </c>
+      <c r="E52" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>4</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+      <c r="BQ52">
+        <v>0</v>
+      </c>
+      <c r="BR52">
+        <v>3</v>
+      </c>
+      <c r="BS52">
+        <v>4</v>
+      </c>
+      <c r="BT52">
+        <v>0</v>
+      </c>
+      <c r="BU52">
+        <v>0</v>
+      </c>
+      <c r="BV52">
+        <v>1</v>
+      </c>
+      <c r="BW52">
+        <v>0</v>
+      </c>
+      <c r="BX52">
+        <v>0</v>
+      </c>
+      <c r="BY52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:77">
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53">
+        <v>2025</v>
+      </c>
+      <c r="E53" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53">
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>24</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>2</v>
+      </c>
+      <c r="AM53">
+        <v>3</v>
+      </c>
+      <c r="AN53">
+        <v>4</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
+      <c r="BR53">
+        <v>24</v>
+      </c>
+      <c r="BS53">
+        <v>3</v>
+      </c>
+      <c r="BT53">
+        <v>4</v>
+      </c>
+      <c r="BU53">
+        <v>2</v>
+      </c>
+      <c r="BV53">
+        <v>0</v>
+      </c>
+      <c r="BW53">
+        <v>0</v>
+      </c>
+      <c r="BX53">
+        <v>0</v>
+      </c>
+      <c r="BY53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:77">
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
+      </c>
+      <c r="E54" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>3</v>
+      </c>
+      <c r="AM54">
+        <v>3</v>
+      </c>
+      <c r="AN54">
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>4</v>
+      </c>
+      <c r="BS54">
+        <v>3</v>
+      </c>
+      <c r="BT54">
+        <v>2</v>
+      </c>
+      <c r="BU54">
+        <v>1</v>
+      </c>
+      <c r="BV54">
+        <v>0</v>
+      </c>
+      <c r="BW54">
+        <v>0</v>
+      </c>
+      <c r="BX54">
+        <v>0</v>
+      </c>
+      <c r="BY54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:77">
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
+      </c>
+      <c r="E55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55">
         <v>15</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
         <v>15</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>0</v>
-      </c>
-      <c r="BK48">
-        <v>0</v>
-      </c>
-      <c r="BL48">
-        <v>0</v>
-      </c>
-      <c r="BM48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>0</v>
-      </c>
-      <c r="BO48">
-        <v>0</v>
-      </c>
-      <c r="BP48">
-        <v>0</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48">
+      <c r="O55">
+        <v>9</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>8</v>
+      </c>
+      <c r="AM55">
+        <v>9</v>
+      </c>
+      <c r="AN55">
+        <v>5</v>
+      </c>
+      <c r="AO55">
+        <v>5</v>
+      </c>
+      <c r="AP55">
+        <v>6</v>
+      </c>
+      <c r="AQ55">
+        <v>4</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
+      <c r="BR55">
+        <v>15</v>
+      </c>
+      <c r="BS55">
+        <v>9</v>
+      </c>
+      <c r="BT55">
+        <v>5</v>
+      </c>
+      <c r="BU55">
+        <v>5</v>
+      </c>
+      <c r="BV55">
+        <v>6</v>
+      </c>
+      <c r="BW55">
+        <v>4</v>
+      </c>
+      <c r="BX55">
+        <v>0</v>
+      </c>
+      <c r="BY55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:77">
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56">
+        <v>2025</v>
+      </c>
+      <c r="E56" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
+      <c r="BT56">
+        <v>0</v>
+      </c>
+      <c r="BU56">
+        <v>0</v>
+      </c>
+      <c r="BV56">
+        <v>0</v>
+      </c>
+      <c r="BW56">
+        <v>0</v>
+      </c>
+      <c r="BX56">
+        <v>0</v>
+      </c>
+      <c r="BY56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:77">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
+      </c>
+      <c r="E57" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>15</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
         <v>11</v>
       </c>
-      <c r="BS48">
-        <v>0</v>
-      </c>
-      <c r="BT48">
-        <v>0</v>
-      </c>
-      <c r="BU48">
-        <v>0</v>
-      </c>
-      <c r="BV48">
-        <v>0</v>
-      </c>
-      <c r="BW48">
-        <v>0</v>
-      </c>
-      <c r="BX48">
-        <v>0</v>
-      </c>
-      <c r="BY48">
+      <c r="BS57">
+        <v>0</v>
+      </c>
+      <c r="BT57">
+        <v>0</v>
+      </c>
+      <c r="BU57">
+        <v>0</v>
+      </c>
+      <c r="BV57">
+        <v>0</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
+      </c>
+      <c r="BX57">
+        <v>0</v>
+      </c>
+      <c r="BY57">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -758,7 +758,7 @@
     <t>Mahusekwa District Hospital</t>
   </si>
   <si>
-    <t>Madam ombre Clinic</t>
+    <t>Madamombe Clinic</t>
   </si>
   <si>
     <t>Chimbwanda Clinic</t>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -13633,13 +13633,13 @@
         <v>0</v>
       </c>
       <c r="BR52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU52">
         <v>0</v>
@@ -13863,10 +13863,10 @@
         <v>0</v>
       </c>
       <c r="BR53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT53">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -4985,44 +4985,44 @@
         <v>0</v>
       </c>
       <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>6</v>
       </c>
-      <c r="W15">
+      <c r="AE15">
         <v>4</v>
       </c>
-      <c r="X15">
+      <c r="AF15">
         <v>5</v>
       </c>
-      <c r="Y15">
+      <c r="AG15">
         <v>3</v>
       </c>
-      <c r="Z15">
+      <c r="AH15">
         <v>3</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
       <c r="AI15">
         <v>0</v>
       </c>
@@ -5129,19 +5129,19 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BS15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU15">
         <v>3</v>
       </c>
       <c r="BV15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW15">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -2401,7 +2401,7 @@
         <v>232</v>
       </c>
       <c r="D4">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E4" t="s">
         <v>242</v>
@@ -5956,7 +5956,7 @@
         <v>3</v>
       </c>
       <c r="AM19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN19">
         <v>7</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -5167,206 +5167,206 @@
         <v>253</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>12</v>
-      </c>
       <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>2</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>1</v>
-      </c>
-      <c r="AN16">
-        <v>4</v>
-      </c>
       <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
         <v>2</v>
       </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16">
-        <v>12</v>
-      </c>
       <c r="BS16">
+        <v>1</v>
+      </c>
+      <c r="BT16">
         <v>2</v>
       </c>
-      <c r="BT16">
-        <v>4</v>
-      </c>
       <c r="BU16">
         <v>0</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="BX16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY16">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -6102,49 +6102,49 @@
         <v>244</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -6198,25 +6198,25 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS20">
         <v>0</v>
@@ -13922,16 +13922,16 @@
         <v>256</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -13970,16 +13970,16 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -14018,16 +14018,16 @@
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP54">
         <v>0</v>
@@ -14042,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="AT54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -14114,16 +14114,16 @@
         <v>0</v>
       </c>
       <c r="BR54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BS54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV54">
         <v>0</v>
@@ -25882,16 +25882,16 @@
         <v>269</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -25930,16 +25930,16 @@
         <v>0</v>
       </c>
       <c r="V106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z106">
         <v>0</v>
@@ -25978,16 +25978,16 @@
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP106">
         <v>0</v>
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AT106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -26074,16 +26074,16 @@
         <v>0</v>
       </c>
       <c r="BR106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BS106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BT106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV106">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -9095,19 +9095,19 @@
         <v>249</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -9167,19 +9167,19 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -9188,13 +9188,13 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -23242,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -12414,16 +12414,16 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO47">
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ47">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -2425,13 +2425,13 @@
         <v>240</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2473,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -2617,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -7715,13 +7715,13 @@
         <v>247</v>
       </c>
       <c r="F27">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7763,13 +7763,13 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="W27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -7811,13 +7811,13 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -7907,13 +7907,13 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BS27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BT27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU27">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="BX27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY27">
         <v>0</v>
@@ -9095,19 +9095,19 @@
         <v>249</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -9167,19 +9167,19 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="BV33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BW33">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -2425,13 +2425,13 @@
         <v>240</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2473,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -36005,211 +36005,211 @@
         <v>279</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0</v>
+      </c>
+      <c r="AO150">
+        <v>0</v>
+      </c>
+      <c r="AP150">
+        <v>0</v>
+      </c>
+      <c r="AQ150">
+        <v>0</v>
+      </c>
+      <c r="AR150">
+        <v>0</v>
+      </c>
+      <c r="AS150">
+        <v>0</v>
+      </c>
+      <c r="AT150">
+        <v>0</v>
+      </c>
+      <c r="AU150">
+        <v>0</v>
+      </c>
+      <c r="AV150">
+        <v>0</v>
+      </c>
+      <c r="AW150">
+        <v>0</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+      <c r="BQ150">
+        <v>0</v>
+      </c>
+      <c r="BR150">
         <v>7</v>
       </c>
-      <c r="H150">
-        <v>6</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <v>1</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <v>0</v>
-      </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
-      <c r="V150">
-        <v>12</v>
-      </c>
-      <c r="W150">
-        <v>7</v>
-      </c>
-      <c r="X150">
-        <v>6</v>
-      </c>
-      <c r="Y150">
-        <v>1</v>
-      </c>
-      <c r="Z150">
-        <v>1</v>
-      </c>
-      <c r="AA150">
-        <v>0</v>
-      </c>
-      <c r="AB150">
-        <v>0</v>
-      </c>
-      <c r="AC150">
-        <v>0</v>
-      </c>
-      <c r="AD150">
-        <v>0</v>
-      </c>
-      <c r="AE150">
-        <v>0</v>
-      </c>
-      <c r="AF150">
-        <v>0</v>
-      </c>
-      <c r="AG150">
-        <v>0</v>
-      </c>
-      <c r="AH150">
-        <v>0</v>
-      </c>
-      <c r="AI150">
-        <v>0</v>
-      </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
-      <c r="AK150">
-        <v>0</v>
-      </c>
-      <c r="AL150">
+      <c r="BS150">
+        <v>2</v>
+      </c>
+      <c r="BT150">
         <v>3</v>
       </c>
-      <c r="AM150">
-        <v>3</v>
-      </c>
-      <c r="AN150">
-        <v>3</v>
-      </c>
-      <c r="AO150">
-        <v>1</v>
-      </c>
-      <c r="AP150">
-        <v>1</v>
-      </c>
-      <c r="AQ150">
-        <v>0</v>
-      </c>
-      <c r="AR150">
-        <v>0</v>
-      </c>
-      <c r="AS150">
-        <v>0</v>
-      </c>
-      <c r="AT150">
-        <v>0</v>
-      </c>
-      <c r="AU150">
-        <v>0</v>
-      </c>
-      <c r="AV150">
-        <v>0</v>
-      </c>
-      <c r="AW150">
-        <v>0</v>
-      </c>
-      <c r="AX150">
-        <v>0</v>
-      </c>
-      <c r="AY150">
-        <v>0</v>
-      </c>
-      <c r="AZ150">
-        <v>0</v>
-      </c>
-      <c r="BA150">
-        <v>0</v>
-      </c>
-      <c r="BB150">
-        <v>0</v>
-      </c>
-      <c r="BC150">
-        <v>0</v>
-      </c>
-      <c r="BD150">
-        <v>0</v>
-      </c>
-      <c r="BE150">
-        <v>0</v>
-      </c>
-      <c r="BF150">
-        <v>0</v>
-      </c>
-      <c r="BG150">
-        <v>0</v>
-      </c>
-      <c r="BH150">
-        <v>0</v>
-      </c>
-      <c r="BI150">
-        <v>0</v>
-      </c>
-      <c r="BJ150">
-        <v>0</v>
-      </c>
-      <c r="BK150">
-        <v>0</v>
-      </c>
-      <c r="BL150">
-        <v>0</v>
-      </c>
-      <c r="BM150">
-        <v>0</v>
-      </c>
-      <c r="BN150">
-        <v>0</v>
-      </c>
-      <c r="BO150">
-        <v>0</v>
-      </c>
-      <c r="BP150">
-        <v>0</v>
-      </c>
-      <c r="BQ150">
-        <v>0</v>
-      </c>
-      <c r="BR150">
-        <v>12</v>
-      </c>
-      <c r="BS150">
-        <v>7</v>
-      </c>
-      <c r="BT150">
-        <v>6</v>
-      </c>
       <c r="BU150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW150">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -36005,19 +36005,19 @@
         <v>279</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -36053,19 +36053,19 @@
         <v>0</v>
       </c>
       <c r="V150">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA150">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -2482,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -2617,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -7715,13 +7715,13 @@
         <v>247</v>
       </c>
       <c r="F27">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7763,13 +7763,13 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -7811,13 +7811,13 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -7907,13 +7907,13 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BT27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU27">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="BX27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY27">
         <v>0</v>
@@ -9095,19 +9095,19 @@
         <v>249</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -9167,19 +9167,19 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="BV33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BW33">
         <v>0</v>
@@ -36101,19 +36101,19 @@
         <v>0</v>
       </c>
       <c r="AL150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="BR150">
+        <v>12</v>
+      </c>
+      <c r="BS150">
         <v>7</v>
       </c>
-      <c r="BS150">
-        <v>2</v>
-      </c>
       <c r="BT150">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BU150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW150">
         <v>0</v>
